--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Koski.Spring.012720.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Koski.Spring.012720.xlsx_with_dialog_acts.xlsx
@@ -681,12 +681,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -723,12 +723,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1055,12 +1055,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1265,12 +1265,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1307,12 +1307,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1433,12 +1433,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1475,12 +1475,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1601,12 +1601,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1643,12 +1643,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2441,12 +2441,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2693,12 +2693,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3365,12 +3365,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3869,12 +3869,12 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4163,12 +4163,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4205,12 +4205,12 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4289,12 +4289,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4625,12 +4625,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4835,12 +4835,12 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4877,12 +4877,12 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5637,12 +5637,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5931,12 +5931,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6183,12 +6183,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6309,12 +6309,12 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6645,12 +6645,12 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7451,12 +7451,12 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8127,12 +8127,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8505,12 +8505,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8631,12 +8631,12 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8929,12 +8929,12 @@
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9265,12 +9265,12 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9517,12 +9517,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9727,12 +9727,12 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9811,12 +9811,12 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10021,12 +10021,12 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10189,12 +10189,12 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10651,12 +10651,12 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10819,12 +10819,12 @@
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10987,12 +10987,12 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11113,12 +11113,12 @@
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11533,12 +11533,12 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11617,12 +11617,12 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11659,12 +11659,12 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11911,12 +11911,12 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12167,12 +12167,12 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12427,12 +12427,12 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12553,12 +12553,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12725,12 +12725,12 @@
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12771,12 +12771,12 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12813,12 +12813,12 @@
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13191,12 +13191,12 @@
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13401,12 +13401,12 @@
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13485,12 +13485,12 @@
       <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13611,12 +13611,12 @@
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13695,12 +13695,12 @@
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13905,12 +13905,12 @@
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -14119,12 +14119,12 @@
       <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14203,12 +14203,12 @@
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14791,12 +14791,12 @@
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15131,12 +15131,12 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15383,12 +15383,12 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15425,12 +15425,12 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15467,12 +15467,12 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15509,12 +15509,12 @@
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15635,12 +15635,12 @@
       <c r="H361" t="inlineStr"/>
       <c r="I361" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16013,12 +16013,12 @@
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16517,12 +16517,12 @@
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17021,12 +17021,12 @@
       <c r="H394" t="inlineStr"/>
       <c r="I394" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17147,12 +17147,12 @@
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17273,12 +17273,12 @@
       <c r="H400" t="inlineStr"/>
       <c r="I400" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17609,12 +17609,12 @@
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17777,12 +17777,12 @@
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17903,12 +17903,12 @@
       <c r="H415" t="inlineStr"/>
       <c r="I415" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18495,12 +18495,12 @@
       <c r="H429" t="inlineStr"/>
       <c r="I429" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18579,12 +18579,12 @@
       <c r="H431" t="inlineStr"/>
       <c r="I431" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18621,12 +18621,12 @@
       <c r="H432" t="inlineStr"/>
       <c r="I432" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18835,12 +18835,12 @@
       <c r="H437" t="inlineStr"/>
       <c r="I437" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19423,12 +19423,12 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19889,12 +19889,12 @@
       <c r="H462" t="inlineStr"/>
       <c r="I462" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19931,12 +19931,12 @@
       <c r="H463" t="inlineStr"/>
       <c r="I463" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20099,12 +20099,12 @@
       <c r="H467" t="inlineStr"/>
       <c r="I467" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20307,12 +20307,12 @@
       <c r="H472" t="inlineStr"/>
       <c r="I472" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20601,12 +20601,12 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20685,12 +20685,12 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20769,12 +20769,12 @@
       <c r="H483" t="inlineStr"/>
       <c r="I483" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20811,12 +20811,12 @@
       <c r="H484" t="inlineStr"/>
       <c r="I484" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20979,12 +20979,12 @@
       <c r="H488" t="inlineStr"/>
       <c r="I488" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21571,12 +21571,12 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21697,12 +21697,12 @@
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22075,12 +22075,12 @@
       <c r="H514" t="inlineStr"/>
       <c r="I514" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22369,12 +22369,12 @@
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -22453,12 +22453,12 @@
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -22747,12 +22747,12 @@
       <c r="H530" t="inlineStr"/>
       <c r="I530" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -23377,12 +23377,12 @@
       <c r="H545" t="inlineStr"/>
       <c r="I545" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -23503,12 +23503,12 @@
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23713,12 +23713,12 @@
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J553" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23755,12 +23755,12 @@
       <c r="H554" t="inlineStr"/>
       <c r="I554" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24049,12 +24049,12 @@
       </c>
       <c r="I561" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24301,12 +24301,12 @@
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J567" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24553,12 +24553,12 @@
       <c r="H573" t="inlineStr"/>
       <c r="I573" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24973,12 +24973,12 @@
       <c r="H583" t="inlineStr"/>
       <c r="I583" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J583" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -25145,12 +25145,12 @@
       <c r="H587" t="inlineStr"/>
       <c r="I587" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J587" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25691,12 +25691,12 @@
       <c r="H600" t="inlineStr"/>
       <c r="I600" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J600" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25859,12 +25859,12 @@
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J604" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25943,12 +25943,12 @@
       </c>
       <c r="I606" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J606" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -26319,12 +26319,12 @@
       <c r="H615" t="inlineStr"/>
       <c r="I615" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J615" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26529,12 +26529,12 @@
       <c r="H620" t="inlineStr"/>
       <c r="I620" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J620" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -26655,12 +26655,12 @@
       <c r="H623" t="inlineStr"/>
       <c r="I623" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J623" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26865,12 +26865,12 @@
       <c r="H628" t="inlineStr"/>
       <c r="I628" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J628" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27075,12 +27075,12 @@
       <c r="H633" t="inlineStr"/>
       <c r="I633" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J633" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -27289,12 +27289,12 @@
       <c r="H638" t="inlineStr"/>
       <c r="I638" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J638" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27331,12 +27331,12 @@
       <c r="H639" t="inlineStr"/>
       <c r="I639" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J639" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27713,12 +27713,12 @@
       <c r="H648" t="inlineStr"/>
       <c r="I648" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J648" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -27923,12 +27923,12 @@
       <c r="H653" t="inlineStr"/>
       <c r="I653" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J653" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28007,12 +28007,12 @@
       <c r="H655" t="inlineStr"/>
       <c r="I655" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J655" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28049,12 +28049,12 @@
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28637,12 +28637,12 @@
       </c>
       <c r="I670" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J670" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28721,12 +28721,12 @@
       <c r="H672" t="inlineStr"/>
       <c r="I672" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J672" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28763,12 +28763,12 @@
       <c r="H673" t="inlineStr"/>
       <c r="I673" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J673" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -28809,12 +28809,12 @@
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J674" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29187,12 +29187,12 @@
       <c r="H683" t="inlineStr"/>
       <c r="I683" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -29233,12 +29233,12 @@
       </c>
       <c r="I684" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J684" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -29943,12 +29943,12 @@
       <c r="H701" t="inlineStr"/>
       <c r="I701" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J701" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30111,12 +30111,12 @@
       <c r="H705" t="inlineStr"/>
       <c r="I705" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J705" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30447,12 +30447,12 @@
       <c r="H713" t="inlineStr"/>
       <c r="I713" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J713" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -30615,12 +30615,12 @@
       </c>
       <c r="I717" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J717" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
